--- a/Assets/scripts/tutorialTexts.xlsx
+++ b/Assets/scripts/tutorialTexts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilinwa2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylu7\Documents\GitHub\Liubo\Assets\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F3F46-5E0C-45D8-ABDD-76C00B25A3D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Welcome to Liubo!</t>
   </si>
@@ -57,12 +58,249 @@
   </si>
   <si>
     <t>Strategy</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Liubo&lt;/b&gt; is an ancient Chinese board game about birds competing over a pond full of fish. The full rules of the game were lost to time; here we present one possible reconstruction of the rules based on the surviving components and texts!
+&lt;b&gt;Use the menu on the left to navigate the rules topics. Within a topic, use the arrows to flip through pages.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In &lt;b&gt;Liubo&lt;/b&gt;, each player controls 6 pieces representing birds. These birds fly around the board from perch to perch (the lines on the board), trying to reach the pond in the center of the board. When a bird crosses over or lands on the pond, it catches a fish and becomes an “Owl”, also meaning “leader” of the flock. </t>
+  </si>
+  <si>
+    <t>Owls can score points by dropping their fish into nests on the opponent’s side of the board. However, you can also score points by capturing your opponent’s normal birds or Owls, which is often the faster path to victory.
+&lt;b&gt;The first player to 6 points wins!&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Hello friend! I am Liu He, former emperor and famous Han dynasty Liubo player! I was also known as Haihun Hou (the Marquis of Haihun). The last pages of each section contain my notes about the game and its history. 
+-Liu He</t>
+  </si>
+  <si>
+    <t>This section contains the essential rules to start playing, including:
+	1. How to take your turn
+	2. How to score points
+	3. How to win the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every Liubo turn consists of the following steps:
+&lt;b&gt;Step 1&lt;/b&gt;. &lt;b&gt;Roll the jar of sticks&lt;/b&gt; by clicking “Roll Sticks” to generate two numbers between 1 and 4 (see “Rolling the Sticks”)
+ </t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Step 2&lt;/b&gt;. &lt;b&gt;Click on a piece&lt;/b&gt; to move, and &lt;b&gt;click on one of the numbers&lt;/b&gt; you rolled. You may click the piece and the number in either order. You can deselect by using the escape key or right mouse button.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Step 3&lt;/b&gt;. Click on one of the highlighted &lt;b&gt;destination spaces&lt;/b&gt; to move your piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Step 4&lt;/b&gt;. Repeat steps 2&amp;3 to &lt;b&gt;move a second piece&lt;/b&gt;. 
+ &lt;b&gt;You must always move two pieces&lt;/b&gt;. You cannot move the same piece twice in one turn. You cannot “pass” your turn without finishing both moves.
+</t>
+  </si>
+  <si>
+    <t>When two of your birds share a perch, they form a &lt;b&gt;blockade&lt;/b&gt;. This prevents all other birds from landing on or moving through this perch.</t>
+  </si>
+  <si>
+    <t>When you and an opponent share a perch, that perch is considered &lt;b&gt;contested&lt;/b&gt;.
+When a third bird enters a contested perch, the odd bird out is &lt;b&gt;captured&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>When a bird lands on or crosses over the pond, it becomes an &lt;b&gt;Owl&lt;/b&gt;. Owls are more powerful than other Birds; they can score points in nests. However, they are also vulnerable to capture from other birds.</t>
+  </si>
+  <si>
+    <t>When an Owl lands on a perch with an opponent’s bird, that bird is immediately captured.
+However, if a normal bird lands on a perch with an opponent's Owl,the Owl is immediately captured.</t>
+  </si>
+  <si>
+    <t>Finally, when your Owl lands on or moves through a nest, you score 3 points. The Owl then reverts to being a normal bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;The goal of Liubo is to be the first player to score 6 points.&lt;/b&gt; There are three ways to score points:
+   - Capturing an opponent’s normal bird is worth &lt;b&gt;1 point&lt;/b&gt;. 
+    - An Owl reaching a nest is worth &lt;b&gt;2 points&lt;/b&gt;. 
+    - Capturing an opponent’s Owl is worth &lt;b&gt;3 points&lt;/b&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Liu” in Liubo means “six,” and the number six appears several times in the game: 6 points to win, 6 birds per player, 6 throwing sticks!
+-Liu He
+					</t>
+  </si>
+  <si>
+    <t>The best way to learn Liubo is to jump in and start playing! Liubo was popular in my day because its mix of strategy and randomness is welcoming to new players. These elements also made it a perfect gambling game.
+-Liu He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here are the elements on your screen during gameplay: 
+    1. Displays your &lt;b&gt;name and current score&lt;/b&gt;
+    2. Displays your two &lt;b&gt;move numbers&lt;/b&gt; for this turn
+    3. Shows or hides the &lt;b&gt;“helper lines”&lt;/b&gt; indicating which spaces on the board are connected
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Shows or hides the names of positions on the board, translated from their original chinese characters
+    5. Rolls the sticks at the beginning of your turn 
+    6. Brings up this rulebook interface during play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You can use the arrow keys, or the Q and E keys, to rotate the camera around the game board.</t>
+  </si>
+  <si>
+    <t>The game's components are historically acurate, and based on findings from excavated tombs, such as my own! The board and pieces and were frequently made of materials such as jade, ivory, and lacquered wood, while the throwing sticks were made of bamboo around metal rods.
+-Liu He</t>
+  </si>
+  <si>
+    <t>The Game Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;To start your turn, click on “Roll Sticks” at the bottom of the screen&lt;/b&gt;. Before rolling, you can shake the jar by moving your mouse quickly! After rolling, you will see a display of the result. The game automatically interprets this result for you, and displays your two numbers underneath your player card. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each stick has one rounded side and one flat side, which you can think of like the “heads” and “tails” of a coin. When counting the sticks, “heads” is worth 1, while “tails” is 0. The sticks are counted in two groups: 3 light sticks, and 3 dark sticks.
+-Liu He
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The value of each group is equal to the number of “heads” rolled. However, rolling all “tails” is actually worth 4! This method of rolling results in 1 and 2 being three times as likely as 3 and 4. Rolling big numbers is a special event in Liubo!
+-Liu He</t>
+  </si>
+  <si>
+    <t>This method of reading sticks is related to traditional divination methods, particuarly the trigrams and hexagrams found in the the &lt;i&gt;Yi Jing (Book of Changes).&lt;/i&gt;
+-Liu He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of your birds begin the game &lt;b&gt;off the board&lt;/b&gt;. Their first step onto the board must be onto one of the &lt;b&gt;“Branch” spaces&lt;/b&gt; on your side of the board, which are highlighted in green. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To move, first &lt;b&gt;select a piece by clicking on it&lt;/b&gt;. This will highlight the piece in blue. Next, &lt;b&gt;click on one of your move numbers&lt;/b&gt; below your player card. Once you have selected a piece and a move number, all &lt;b&gt;valid destinations&lt;/b&gt; on the board will be highlighted in gold. Click on one of these destinations to move your piece there. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hovering your mouse over one of these destinations will &lt;b&gt;preview the path&lt;/b&gt; your piece would take to get there. This can be important to know if your piece will become an Owl or cross a nest during this movement. 
+</t>
+  </si>
+  <si>
+    <t>Like in many Chinese board games, your pieces stand on the lines of the board, rather than on "spaces" between them. In this case, the Liubo board represents a forest surrounding a walled garden, and the lines represent places your birds can perch in this environment.
+-Liu He</t>
+  </si>
+  <si>
+    <t>The connections between perches are drawn onto the diagram above. Any perches connected by blue lines in this diagram are &lt;b&gt;adjacent&lt;/b&gt;. It takes 1 step of movement to move between adjacent perches.</t>
+  </si>
+  <si>
+    <t>You may show this diagram during gameplay by clicking &lt;b&gt;"Show lines"&lt;/b&gt; in the lower left corner of the screen. Additionally, you can examine the board from other angles by rotating the camera; to do so, use the left and right arrow keys, or the Q and E keys.</t>
+  </si>
+  <si>
+    <t>The board consists of an &lt;b&gt;outer ring&lt;/b&gt; of perches representing a &lt;b&gt;forest&lt;/b&gt;, and 4 paths into a &lt;b&gt;central garden&lt;/b&gt;, with the &lt;b&gt;pond&lt;/b&gt; at the very center. The &lt;b&gt;nest&lt;/b&gt; spaces are connected to the "branch" and "hollow" spaces at each corner. Only Owls may enter nests, and only the two nests on their &lt;b&gt;opponent’s side of the board&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>The Outer Ring is the fastest path around the board! Try sending some bird around the outside, while another goes through the middle to become an Owl. The normal birds will reach the other side first, and help provide safe perches for your Owl to land.
+-Liu He</t>
+  </si>
+  <si>
+    <t>Each perch has a name representing its place in the forest and garden portrayed by the board. Not all of the ancient Chinese characters have a direct translation into modern Chinese or English, so this set of names is an approximation that fits the theme.
+-Liu He</t>
+  </si>
+  <si>
+    <t>The pattern of lines on the Liubo board comes from traditional bronze mirrors of the Han dynasty, also known as the TLV pattern. In one interpretation, the central square represents the earth, the connected “T” shapes represent the sky, the four circles represent the seas, and the Ls and Vs around the outer edge represent the cosmos.
+-Liu He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a bird &lt;b&gt;lands on or crosses the pond&lt;/b&gt; in the center of the board, it becomes an &lt;b&gt;Owl&lt;/b&gt;. This is indicated by the piece standing up on end. </t>
+  </si>
+  <si>
+    <t>Owls are the only pieces that can score in nests, but they are also more valuable to capture. There is no limit to the number of Owls you can have at once.</t>
+  </si>
+  <si>
+    <t>A bird becomes an Owl as soon as it enters the pond as part of a movement. This means that it is impossible to capture an Owl standing in the middle using a single normal bird–it will become an Owl as soon as it enters the space.</t>
+  </si>
+  <si>
+    <t>Having too many Owls at once is risky! While you have more pieces able to score in nests, you are also providing your opponent many opportunities to score by capturing your Owls. Make all your pieces work together to keep your Owls safe.
+-Liu He</t>
+  </si>
+  <si>
+    <t>In Liubo, the word used for “Owl” also means “leader.” So, when a bird becomes an Owl in the game, it is not literally transforming form one species of bird to another. Instead, it has earned the right to be called “leader” of the other birds by successfully catching a fish from the pond.
+-Liu He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When two of your birds share a perch, they form a &lt;b&gt;blockade&lt;/b&gt;. Blockades prevent all other pieces from moving through them, &lt;b&gt;including your own&lt;/b&gt;. </t>
+  </si>
+  <si>
+    <t>The pieces of a blockade stack on top of each other. Because blockades can be made of any combination of Owls and normal birds, there are three different ways they can look (see video above). However, all of these blockades work exactly the same way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Special Rule&lt;/b&gt;: When rolling doubles, you cannot move both pieces of a blockade to the same new space. They can both move, but they must move to two different spaces. </t>
+  </si>
+  <si>
+    <t>The blockade mechanic is inspired by one of Liubo’s likely predecessors: the Indian game Pachisi. You may know it better by the name Parcheesi.
+-Liu He</t>
+  </si>
+  <si>
+    <t>When two opposing birds of the same type (both normal or both Owl)  land on the same perch, that perch becomes &lt;b&gt;contested&lt;/b&gt;. Both birds share the space peacefully... for now.</t>
+  </si>
+  <si>
+    <t>Once a third bird enters a contested perch, the two of the same color will form a blockade, and the odd bird out will be &lt;b&gt;captured&lt;/b&gt;. This is also called a &lt;b&gt;blockade capture&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;A contested perch is not a blockade&lt;/b&gt;. They do not prevent other birds from moving through them.</t>
+  </si>
+  <si>
+    <t>Be careful contesting perches too often. It can be a good way to set up captures on your next turn, but you are also presenting your opponent an opporunity to capture in the meantime.
+-Liu He</t>
+  </si>
+  <si>
+    <t>There are &lt;b&gt;three ways to capture&lt;/b&gt; an opponent's bird (detailed on the following pages). In all cases, the active player &lt;b&gt;scores points based on the type&lt;/b&gt; (normal or Owl) of the opponent’s bird they captured. Capturing a &lt;b&gt;normal bird awards 1 point&lt;/b&gt;, while capturing an &lt;b&gt;Owl awards 3 points&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>Capture Type 1: Moving a &lt;b&gt;normal bird onto an Owl’s perch&lt;/b&gt; immediately &lt;b&gt;captures the Owl&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>Capture Type 2: Moving an &lt;b&gt;Owl onto a normal bird’s perch&lt;/b&gt; immediately &lt;b&gt;captures the normal bird&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>Capture Type 3: Moving &lt;b&gt;any bird onto a contested perch&lt;/b&gt; immediately &lt;b&gt;captures the opponent’s bird&lt;/b&gt; on that space. Additionally, your two pieces form a blockade on that perch.</t>
+  </si>
+  <si>
+    <t>Captured birds are moved off the board, but returned to their player; that player may re-enter their bird from a starting space on their next turn. Additionally, captured Owls are downgraded back to normal birds.</t>
+  </si>
+  <si>
+    <t>Capturing is often the fastest way to score. You should always be looking for ways to capture your opponent, as well as ways to protect your own pieces from capture!
+-Liu He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You also score points by having your &lt;b&gt;Owl reach one of its nests&lt;/b&gt;. These nest spaces are &lt;b&gt;circular spaces located on your opponent’s side of the board&lt;/b&gt;. When an Owl either &lt;b&gt;lands on or pass through a nest space&lt;/b&gt; during its movement, its player immediately scores &lt;b&gt;2 points&lt;/b&gt;, and the &lt;b&gt;Owl reverts to being a normal bird&lt;/b&gt;. </t>
+  </si>
+  <si>
+    <t>Technicality: Only Owls may enter nest spaces. However, normal birds can always exit nest spaces. This is important because the Owl reverts to being a normal bird as soon as it enters the nest!</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #1: Use all your birds!&lt;/b&gt; More birds on the board means more options on every turn. However, it can also be advantageous to keep one or two off the board. This way, they can enter quickly to catch an opponent's Owl before they reach a nest!
+-Liu He</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #2: Use the whole board.&lt;/b&gt; Send some of your birds into the middle, while moving others around the outside. This way you can set up more possible landing areas for your owl, and your opponent will be less able to block you.
+-Liu He</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #3: Your birds must work together.&lt;/b&gt; Two or three birds close together are more likely to create a blockade or capture an opponent at a cruical moment. A bird all by itself won't be able to do this. Birds of a feather flock together!
+-Liu He</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #4: Owls need support.&lt;/b&gt; Owls by themselves are likely to be captured. Try placing several normal birds on perches between the pond and the nest you want to score in before moving your Owl. This way you provide several possible blockade locations, creating a "road" of safe places for your Owl to land on the way to the nest. 
+-Liu He</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #5: Understand the sticks.&lt;/b&gt; Rolls of 1 and 2 are three times more likely than 3 and 4. Use this to estimate the likelihood of events such as captures and nest scores. The best Liubo players know when to push their luck, and when to stay safe. 
+-Liu He</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tip #6: Have fun!&lt;/b&gt; Liubo's mix of strategy and randomness means there is no one perfect strategy. This quality made it a gambling game that endured 1000 years. By playing the game and trying your own strategies, you are also helping preserve the history of Liubo for future generations. Thank you for playing!
+-Liu He</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,8 +330,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,62 +620,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="31.08984375" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
-    <col min="10" max="10" width="39.08984375" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="3" width="91.7265625" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" customWidth="1"/>
+    <col min="5" max="5" width="40.36328125" customWidth="1"/>
+    <col min="6" max="6" width="53.08984375" customWidth="1"/>
+    <col min="7" max="7" width="31.08984375" customWidth="1"/>
+    <col min="8" max="8" width="32.08984375" customWidth="1"/>
+    <col min="9" max="9" width="38.36328125" customWidth="1"/>
+    <col min="10" max="10" width="44.08984375" customWidth="1"/>
+    <col min="11" max="11" width="39.08984375" customWidth="1"/>
+    <col min="12" max="12" width="54.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="158.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/scripts/tutorialTexts.xlsx
+++ b/Assets/scripts/tutorialTexts.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilinwa2\Documents\GitHub\Liubo_2021\Assets\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlian\Documents\GitHub\Liubo\Assets\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B26E6-E0E2-4919-ACF8-9719C7355B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
+    <sheet name="Button" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
   <si>
     <t>Welcome to Liubo!</t>
   </si>
@@ -191,9 +193,6 @@
   <si>
     <t>&lt;b&gt;Tip #6: Have fun!&lt;/b&gt; Liubo's mix of strategy and randomness means there is no one perfect strategy. This quality made it a gambling game that endured 1000 years. By playing the game and trying your own strategies, you are also helping preserve the history of Liubo for future generations. Thank you for playing!
 -Liu He</t>
-  </si>
-  <si>
-    <t>欢迎来到Liubo！</t>
   </si>
   <si>
     <t>快速规则</t>
@@ -491,11 +490,154 @@
     <t>&lt;b&gt;提示＃6：玩得开心！&lt;/b&gt; liubo的策略和随机性的结合意味着没有一个完美的策略。这种质量使它成为了1000年的赌博游戏。通过玩游戏并尝试自己的策略，您还可以帮助保留子孙后代的Liubo历史。谢谢你来玩！
 -liu他</t>
   </si>
+  <si>
+    <t>欢迎来到六博！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Game </t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tingru(Tina) Lian 
+Chia-Wei(Jeffrey) Liu
+Yongzi(Eliza) Ye
+Lochlan Belford
+Chia-Wei(Jeffrey) Liu
+Yicheng Lu
+Yilin(Lucy) Wang
+Lochlan Belford
+Chia-Wei(Jeffrey) Liu
+Yicheng Lu
+Tingru(Tina) Lian 
+</t>
+  </si>
+  <si>
+    <t>Player 1 Name</t>
+  </si>
+  <si>
+    <t>Player 2 Name</t>
+  </si>
+  <si>
+    <t>Conform</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Show Lines</t>
+  </si>
+  <si>
+    <t>Show Labels</t>
+  </si>
+  <si>
+    <t>Show Rulebook</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Player 1 Score</t>
+  </si>
+  <si>
+    <t>Player 2 Score</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>学棋</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>制作人 助理制作人  美术 游戏策划 程序员</t>
+  </si>
+  <si>
+    <t>Role  Producer
+Assistant Producer
+Artist
+Game Designer Programmer</t>
+  </si>
+  <si>
+    <t>练婷如 刘家维 叶泳姿 陆逸程 王奕霖</t>
+  </si>
+  <si>
+    <t>Message Text</t>
+  </si>
+  <si>
+    <t>Score 6 points to win</t>
+  </si>
+  <si>
+    <t>s  Turn</t>
+  </si>
+  <si>
+    <t>Bird upgraded into an Owl!</t>
+  </si>
+  <si>
+    <t>Text_ID</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>text0001</t>
+  </si>
+  <si>
+    <t>text0002</t>
+  </si>
+  <si>
+    <t>text0003</t>
+  </si>
+  <si>
+    <t>text0004</t>
+  </si>
+  <si>
+    <t>text0005</t>
+  </si>
+  <si>
+    <t>text0006</t>
+  </si>
+  <si>
+    <t>text0007</t>
+  </si>
+  <si>
+    <t>text0008</t>
+  </si>
+  <si>
+    <t>text0009</t>
+  </si>
+  <si>
+    <t>text0010</t>
+  </si>
+  <si>
+    <t>得六分者胜</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>对弈</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -568,6 +710,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,6 +1016,12 @@
     <col min="10" max="10" width="44.08984375" customWidth="1"/>
     <col min="11" max="11" width="39.08984375" customWidth="1"/>
     <col min="12" max="12" width="54.453125" customWidth="1"/>
+    <col min="13" max="13" width="34.7265625" customWidth="1"/>
+    <col min="14" max="14" width="33.90625" customWidth="1"/>
+    <col min="15" max="15" width="43.08984375" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="17" width="62.1796875" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -908,40 +1062,40 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -951,92 +1105,92 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1060,40 +1214,40 @@
         <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1106,13 +1260,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1121,7 +1275,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>34</v>
@@ -1134,38 +1288,38 @@
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1206,38 +1360,38 @@
         <v>46</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1245,7 +1399,7 @@
     <row r="6" spans="1:26" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -1267,25 +1421,25 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1313,23 +1467,23 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -29142,4 +29296,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E7569D-AE9B-43DC-B10F-C5967E93D20D}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="14.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15" style="6" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" style="6"/>
+    <col min="12" max="12" width="11.90625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" style="6" customWidth="1"/>
+    <col min="15" max="17" width="8.7265625" style="6"/>
+    <col min="18" max="18" width="12.90625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="8.7265625" style="6"/>
+    <col min="22" max="22" width="12.54296875" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="232" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R2" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="R3" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="R4" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/scripts/tutorialTexts.xlsx
+++ b/Assets/scripts/tutorialTexts.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlian\Documents\GitHub\Liubo\Assets\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilinwa2\Documents\GitHub\Liubo_2021\Assets\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B26E6-E0E2-4919-ACF8-9719C7355B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302"/>
   </bookViews>
   <sheets>
-    <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
-    <sheet name="Button" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Welcome to Liubo!</t>
   </si>
@@ -193,6 +191,9 @@
   <si>
     <t>&lt;b&gt;Tip #6: Have fun!&lt;/b&gt; Liubo's mix of strategy and randomness means there is no one perfect strategy. This quality made it a gambling game that endured 1000 years. By playing the game and trying your own strategies, you are also helping preserve the history of Liubo for future generations. Thank you for playing!
 -Liu He</t>
+  </si>
+  <si>
+    <t>欢迎来到Liubo！</t>
   </si>
   <si>
     <t>快速规则</t>
@@ -490,154 +491,11 @@
     <t>&lt;b&gt;提示＃6：玩得开心！&lt;/b&gt; liubo的策略和随机性的结合意味着没有一个完美的策略。这种质量使它成为了1000年的赌博游戏。通过玩游戏并尝试自己的策略，您还可以帮助保留子孙后代的Liubo历史。谢谢你来玩！
 -liu他</t>
   </si>
-  <si>
-    <t>欢迎来到六博！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Game </t>
-  </si>
-  <si>
-    <t>Rules</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tingru(Tina) Lian 
-Chia-Wei(Jeffrey) Liu
-Yongzi(Eliza) Ye
-Lochlan Belford
-Chia-Wei(Jeffrey) Liu
-Yicheng Lu
-Yilin(Lucy) Wang
-Lochlan Belford
-Chia-Wei(Jeffrey) Liu
-Yicheng Lu
-Tingru(Tina) Lian 
-</t>
-  </si>
-  <si>
-    <t>Player 1 Name</t>
-  </si>
-  <si>
-    <t>Player 2 Name</t>
-  </si>
-  <si>
-    <t>Conform</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Show Lines</t>
-  </si>
-  <si>
-    <t>Show Labels</t>
-  </si>
-  <si>
-    <t>Show Rulebook</t>
-  </si>
-  <si>
-    <t>Winner</t>
-  </si>
-  <si>
-    <t>Player 1 Score</t>
-  </si>
-  <si>
-    <t>Player 2 Score</t>
-  </si>
-  <si>
-    <t>开始游戏</t>
-  </si>
-  <si>
-    <t>学棋</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>制作人 助理制作人  美术 游戏策划 程序员</t>
-  </si>
-  <si>
-    <t>Role  Producer
-Assistant Producer
-Artist
-Game Designer Programmer</t>
-  </si>
-  <si>
-    <t>练婷如 刘家维 叶泳姿 陆逸程 王奕霖</t>
-  </si>
-  <si>
-    <t>Message Text</t>
-  </si>
-  <si>
-    <t>Score 6 points to win</t>
-  </si>
-  <si>
-    <t>s  Turn</t>
-  </si>
-  <si>
-    <t>Bird upgraded into an Owl!</t>
-  </si>
-  <si>
-    <t>Text_ID</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>text0001</t>
-  </si>
-  <si>
-    <t>text0002</t>
-  </si>
-  <si>
-    <t>text0003</t>
-  </si>
-  <si>
-    <t>text0004</t>
-  </si>
-  <si>
-    <t>text0005</t>
-  </si>
-  <si>
-    <t>text0006</t>
-  </si>
-  <si>
-    <t>text0007</t>
-  </si>
-  <si>
-    <t>text0008</t>
-  </si>
-  <si>
-    <t>text0009</t>
-  </si>
-  <si>
-    <t>text0010</t>
-  </si>
-  <si>
-    <t>得六分者胜</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>对弈</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -710,12 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,11 +848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,12 +868,6 @@
     <col min="10" max="10" width="44.08984375" customWidth="1"/>
     <col min="11" max="11" width="39.08984375" customWidth="1"/>
     <col min="12" max="12" width="54.453125" customWidth="1"/>
-    <col min="13" max="13" width="34.7265625" customWidth="1"/>
-    <col min="14" max="14" width="33.90625" customWidth="1"/>
-    <col min="15" max="15" width="43.08984375" customWidth="1"/>
-    <col min="16" max="16" width="39.26953125" customWidth="1"/>
-    <col min="17" max="17" width="62.1796875" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1062,40 +908,40 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1105,92 +951,92 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1214,40 +1060,40 @@
         <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1260,13 +1106,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1275,7 +1121,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>34</v>
@@ -1288,38 +1134,38 @@
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1360,38 +1206,38 @@
         <v>46</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1399,7 +1245,7 @@
     <row r="6" spans="1:26" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -1421,25 +1267,25 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1467,23 +1313,23 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -29296,225 +29142,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E7569D-AE9B-43DC-B10F-C5967E93D20D}">
-  <dimension ref="A1:AA24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="6"/>
-    <col min="5" max="5" width="14.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15" style="6" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="6"/>
-    <col min="12" max="12" width="11.90625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" style="6" customWidth="1"/>
-    <col min="15" max="17" width="8.7265625" style="6"/>
-    <col min="18" max="18" width="12.90625" style="6" customWidth="1"/>
-    <col min="19" max="21" width="8.7265625" style="6"/>
-    <col min="22" max="22" width="12.54296875" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="232" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="R2" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="R3" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="R4" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/scripts/tutorialTexts.xlsx
+++ b/Assets/scripts/tutorialTexts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlian\Documents\GitHub\Liubo\Assets\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylu7\Documents\GitHub\Liubo\Assets\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B26E6-E0E2-4919-ACF8-9719C7355B4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D31CE-CBE2-4399-9737-80B067202882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,10 +1021,16 @@
     <col min="15" max="15" width="43.08984375" customWidth="1"/>
     <col min="16" max="16" width="39.26953125" customWidth="1"/>
     <col min="17" max="17" width="62.1796875" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="32.7265625" customWidth="1"/>
+    <col min="19" max="19" width="28.6328125" customWidth="1"/>
+    <col min="20" max="20" width="31.36328125" customWidth="1"/>
+    <col min="21" max="21" width="28.6328125" customWidth="1"/>
+    <col min="22" max="22" width="33.26953125" customWidth="1"/>
+    <col min="23" max="23" width="38.54296875" customWidth="1"/>
+    <col min="24" max="24" width="47.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1450,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="325.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -29303,7 +29309,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29424,7 +29430,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>163</v>
       </c>
@@ -29465,7 +29471,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>167</v>
       </c>

--- a/Assets/scripts/tutorialTexts.xlsx
+++ b/Assets/scripts/tutorialTexts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylu7\Documents\GitHub\Liubo\Assets\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilinwa2\Documents\GitHub\Liubo_2021\Assets\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D31CE-CBE2-4399-9737-80B067202882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="302"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -225,9 +224,6 @@
     <t>在巢中得分</t>
   </si>
   <si>
-    <t>战略</t>
-  </si>
-  <si>
     <t>This section contains the essential rules to start playing, including:
 1. How to take your turn
 2. How to score points
@@ -298,10 +294,6 @@
     <t>您还通过让&lt;b&gt;猫头鹰达到其巢之一&lt;/b&gt;来得分。这些巢穴是&lt;b&gt;圆形空间，位于板的对手侧面&lt;/b&gt;。当猫头鹰在运动过程中登上或通过巢穴空间时，其玩家立即得分&lt;b&gt; 2分&lt;/b&gt;，&lt;b&gt; owl恢复为正常的鸟&lt; /b&gt;。</t>
   </si>
   <si>
-    <t>&lt;b&gt;提示＃1：使用所有的鸟！&lt;/b&gt;板上更多的鸟意味着更多的选择。但是，将一两个拒之门外的董事会远离板子也可能是有利的。这样，他们可以迅速进入以抓住对手的猫头鹰，然后才能到达巢穴！
--liu他</t>
-  </si>
-  <si>
     <t>In &lt;b&gt;Liubo&lt;/b&gt;, each player controls 6 pieces representing birds. These birds fly around the board from perch to perch (the lines on the board), trying to reach the pond in the center of the board. When a bird crosses over or lands on the pond, it catches a fish and becomes an “Owl”, also meaning “leader” of the flock.</t>
   </si>
   <si>
@@ -358,10 +350,6 @@
     <t>技术性：只有猫头鹰可以进入巢穴。但是，普通的鸟总是可以退出巢穴。这很重要，因为猫头鹰进入巢穴后立即恢复为普通的鸟！</t>
   </si>
   <si>
-    <t>&lt;b&gt;提示＃2：使用整个木板。&lt;/b&gt;将您的一些鸟发送到中间，同时将其他鸟移到外面。这样，您就可以为猫头鹰设置更多可能的着陆区，而对手将无法阻止您。
--liu他</t>
-  </si>
-  <si>
     <t>You can use the arrow keys, or the Q and E keys, to rotate the camera around the game board.</t>
   </si>
   <si>
@@ -407,10 +395,6 @@
     <t>捕获类型2：将&lt;b&gt;猫头鹰立即移动到普通鸟的鲈鱼上&lt;/b&gt; &lt;b&gt; &lt;b&gt;捕获普通的鸟&lt;/b&gt;。</t>
   </si>
   <si>
-    <t>&lt;b&gt;提示＃3：您的鸟必须一起工作。&lt;/b&gt;两到三只鸟靠在一起，更有可能在巡游时刻造成封锁或捕获对手。一只鸟本身将无法做到这一点。一只羽毛的鸟在一起！
--liu他</t>
-  </si>
-  <si>
     <t>朋友你好！我是Liu，他，前皇帝和著名的汉朝Liubo球员！我也被称为Haihun Hou（Haihun的侯爵）。每个部分的最后一页都包含我关于游戏及其历史记录的注释。
 -liu他</t>
   </si>
@@ -449,10 +433,6 @@
     <t>捕获类型3：将任何鸟都移到有争议的鲈鱼上&lt;/b&gt;立即将对手的鸟&lt;/b&gt;捕获在该空间上。此外，您的两块在该栖息处形成了封锁。</t>
   </si>
   <si>
-    <t>&lt;b&gt;提示＃4：猫头鹰需要支撑。&lt;/b&gt;猫头鹰本身可能会被捕获。尝试将几只普通的鸟放在池塘和巢之间的栖息处，然后在移动猫头鹰之前要进一步。这样，您可以提供几个可能的封锁位置，从而为猫头鹰在通往巢穴的路上降落的安全场所的“道路”。
--liu他</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Step 4&lt;/b&gt;. Repeat steps 2&amp;3 to &lt;b&gt;move a second piece&lt;/b&gt;. 
 &lt;b&gt;You must always move two pieces&lt;/b&gt;. You cannot move the same piece twice in one turn. You cannot “pass” your turn without finishing both moves.</t>
   </si>
@@ -472,10 +452,6 @@
     <t>被捕获的鸟从董事会移开，但回到了他们的球员。该玩家可以在下一回合中从起跑空间重新进入鸟。此外，捕获的猫头鹰被降级到普通鸟类。</t>
   </si>
   <si>
-    <t>&lt;b&gt;提示＃5：了解棍棒。&lt;/b&gt; 1和2的卷比3和4的可能性高三倍。最好的Liubo球员知道什么时候可以推动运气以及何时保持安全。
--liu他</t>
-  </si>
-  <si>
     <t>当您的两只鸟共享栖息时，它们会形成A &lt;b&gt;封锁&lt;/b&gt;。这样可以防止所有其他鸟类降落或穿过这个栖息地。</t>
   </si>
   <si>
@@ -484,10 +460,6 @@
   </si>
   <si>
     <t>捕获通常是得分最快的方法。您应该始终寻找捕获对手的方法，以及保护自己的作品免受捕获的方法！
--liu他</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;提示＃6：玩得开心！&lt;/b&gt; liubo的策略和随机性的结合意味着没有一个完美的策略。这种质量使它成为了1000年的赌博游戏。通过玩游戏并尝试自己的策略，您还可以帮助保留子孙后代的Liubo历史。谢谢你来玩！
 -liu他</t>
   </si>
   <si>
@@ -633,11 +605,38 @@
   <si>
     <t>对弈</t>
   </si>
+  <si>
+    <t>战略$%</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃1：使用所有的鸟！&lt;/b&gt;板上更多的鸟意味着更多的选择。但是，将一两个拒之门外的董事会远离板子也可能是有利的。这样，他们可以迅速进入以抓住对手的猫头鹰，然后才能到达巢穴！
+-liu他$%S</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃2：使用整个木板。&lt;/b&gt;将您的一些鸟发送到中间，同时将其他鸟移到外面。这样，您就可以为猫头鹰设置更多可能的着陆区，而对手将无法阻止您。
+-liu他$%</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃3：您的鸟必须一起工作。&lt;/b&gt;两到三只鸟靠在一起，更有可能在巡游时刻造成封锁或捕获对手。一只鸟本身将无法做到这一点。一只羽毛的鸟在一起！
+-liu他$%</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃4：猫头鹰需要支撑。&lt;/b&gt;猫头鹰本身可能会被捕获。尝试将几只普通的鸟放在池塘和巢之间的栖息处，然后在移动猫头鹰之前要进一步。这样，您可以提供几个可能的封锁位置，从而为猫头鹰在通往巢穴的路上降落的安全场所的“道路”。
+-liu他$%</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃5：了解棍棒。&lt;/b&gt; 1和2的卷比3和4的可能性高三倍。最好的Liubo球员知道什么时候可以推动运气以及何时保持安全。
+-liu他$%</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;提示＃6：玩得开心！&lt;/b&gt; liubo的策略和随机性的结合意味着没有一个完美的策略。这种质量使它成为了1000年的赌博游戏。通过玩游戏并尝试自己的策略，您还可以帮助保留子孙后代的Liubo历史。谢谢你来玩！
+-liu他$%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>49</v>
@@ -1101,7 +1100,7 @@
         <v>58</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1111,92 +1110,92 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1220,40 +1219,40 @@
         <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="X3" s="2" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1266,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1281,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>34</v>
@@ -1294,38 +1293,38 @@
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1366,38 +1365,38 @@
         <v>46</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1405,7 +1404,7 @@
     <row r="6" spans="1:26" ht="179" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -1427,25 +1426,25 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1473,23 +1472,23 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -29305,10 +29304,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E7569D-AE9B-43DC-B10F-C5967E93D20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -29335,188 +29334,188 @@
   <sheetData>
     <row r="1" spans="1:27" ht="232" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R2" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="R3" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="R4" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>138</v>
+      <c r="C14" s="6" t="s">
+        <v>155</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>139</v>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>156</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>140</v>
+      <c r="B15" s="6" t="s">
+        <v>127</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="6" t="s">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="6" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>147</v>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>161</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>151</v>
+      <c r="C20" s="6" t="s">
+        <v>166</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="R2" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="R3" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="R4" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
